--- a/TAXI_INC_EXPENSES_ACCOUNT_SIX_MONTHLY.xlsx
+++ b/TAXI_INC_EXPENSES_ACCOUNT_SIX_MONTHLY.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\Projects\Tax Matters Project\FORMS-2018-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zubair\Documents\Tax-Matters-Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061022DE-0905-4979-A7C1-F6FFF453A45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="8145" firstSheet="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Six Monthly Account" sheetId="1" r:id="rId1"/>
     <sheet name="Logic" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Six Monthly Account</t>
   </si>
@@ -109,17 +116,59 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Change Period</t>
+  </si>
+  <si>
+    <t>Change Period Values</t>
+  </si>
+  <si>
+    <t>Month Start</t>
+  </si>
+  <si>
+    <t>Month End</t>
+  </si>
+  <si>
+    <t>Subtract Year</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> To change the period below click on the red cell [B7] on the left. You will see a dropdown arrow. Click on the drop down arrow to change the financial year as instructed by Tax Matters. </t>
+    </r>
+  </si>
+  <si>
+    <t>Year String</t>
+  </si>
+  <si>
+    <t>Financial Period Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +302,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +357,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -409,14 +493,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,8 +628,8 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,15 +653,10 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -467,7 +666,7 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -481,22 +680,10 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,6 +701,52 @@
     <xf numFmtId="17" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="17" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="23" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -540,6 +773,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -561,7 +803,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -575,7 +817,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -590,7 +832,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -628,7 +870,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -689,7 +931,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C15E0CD-E98B-463B-BB6D-3D74E11DF6A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C15E0CD-E98B-463B-BB6D-3D74E11DF6A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -721,21 +963,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>675056</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>243053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>716018</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>724823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAA87F9-1C86-4E74-9D57-3E30A8C76270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6265246" y="2075794"/>
+          <a:ext cx="4080875" cy="481770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:F7" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="Hyperlink" dataCellStyle="Hyperlink">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:F7" totalsRowShown="0" headerRowDxfId="5" headerRowCellStyle="Hyperlink" dataCellStyle="Hyperlink">
   <tableColumns count="5">
-    <tableColumn id="1" name="Today" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Today" dataDxfId="4">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Date Between" dataDxfId="3" dataCellStyle="Hyperlink">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date Between" dataDxfId="3" dataCellStyle="Hyperlink">
       <calculatedColumnFormula>IF(AND($B$4&gt;=E4,$B$4&lt;=F4),TRUE,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Year" dataDxfId="2"/>
-    <tableColumn id="4" name="Start" dataDxfId="1"/>
-    <tableColumn id="5" name="End" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="End" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1003,34 +1298,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="79" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="10.81640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
@@ -1040,18 +1335,18 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="str">
+    <row r="2" spans="1:13" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="str">
         <f ca="1">CONCATENATE("GST For the Period of ",TEXT(A8,"dd-mm-yyyy")," to ",TEXT(DATE(YEAR(A18),MONTH(A18)+1,0),"dd-mm-yyyy"))</f>
-        <v>GST For the Period of 01-04-2018 to 30-09-2018</v>
+        <v>GST For the Period of 01-04-2020 to 30-09-2020</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1060,16 +1355,16 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15"/>
@@ -1079,18 +1374,18 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="str">
-        <f ca="1">CONCATENATE("Income &amp; Expenses for ",VLOOKUP(TRUE,Table1[[#All],[Date Between]:[End]],2,FALSE))</f>
-        <v>Income &amp; Expenses for 1st Half of 2019</v>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="str">
+        <f ca="1">CONCATENATE("Income &amp; Expenses for ",IF(OR(ISBLANK(B7),ISTEXT(B7)),VLOOKUP(TRUE,Table1[[#All],[Date Between]:[End]],2,FALSE),VLOOKUP(B7,Logic!J4:N12,5,FALSE)))</f>
+        <v>Income &amp; Expenses for 1st Half of 2021</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1099,462 +1394,468 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-    </row>
-    <row r="6" spans="1:13" s="21" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6" spans="1:13" s="20" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="58" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="46">
-        <f ca="1">VLOOKUP(TRUE,Table1[[#All],[Date Between]:[End]],3,FALSE)</f>
-        <v>43191</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+    <row r="7" spans="1:13" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50">
+        <f ca="1">IF(OR(ISBLANK(B7),ISTEXT(B7)),VLOOKUP(TRUE,Table1[[#All],[Date Between]:[End]],3,FALSE),B7)</f>
+        <v>43922</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="44"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="44">
         <f ca="1">EDATE(A8,1)</f>
-        <v>43221</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="39">
         <f ca="1">EDATE(A10,1)</f>
-        <v>43252</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+        <v>43983</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="39">
         <f ca="1">EDATE(A12,1)</f>
-        <v>43282</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+        <v>44013</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="39">
         <f ca="1">EDATE(A14,1)</f>
-        <v>43313</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
+        <v>44044</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="39"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="39">
         <f ca="1">EDATE(A16,1)</f>
-        <v>43344</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" spans="1:13" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-    </row>
-    <row r="23" spans="1:13" s="29" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+        <v>44075</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" s="26" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="24">
         <f>SUM(B8:B22)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="25">
         <f>SUM(C8:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="25">
         <f>SUM(D8:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="25">
         <f>SUM(E8:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="25">
         <f>SUM(F8:F22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="25">
         <f t="shared" ref="G23:M23" si="0">SUM(G7:G22)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="25">
         <f>SUM(I7:I22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:13" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="41">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="34">
         <f>SUM(C23:M23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+    <row r="25" spans="1:13" ht="14" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+    <row r="27" spans="1:13" ht="14" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+    <row r="28" spans="1:13" ht="14" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="C29" s="33"/>
+    <row r="29" spans="1:13" ht="14" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="C29" s="30"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="14" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -1562,13 +1863,14 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:M5"/>
+    <mergeCell ref="C7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B20:M21 B18:M18 B16:M16 B14:M14 B12:M12 B10:M10 B8:M8">
     <cfRule type="containsBlanks" dxfId="6" priority="2">
@@ -1576,32 +1878,51 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
   <drawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry." error="You must select a valid year from this dropdown menu." promptTitle="Select a new period" prompt="Select a new period from this menu and the date will automatically be updated below." xr:uid="{B749268F-C2F4-4A79-8E5D-EF6CD644A0D2}">
+          <x14:formula1>
+            <xm:f>Logic!$J$4:$J$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1617,11 +1938,14 @@
       <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J3" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <f ca="1">TODAY()</f>
-        <v>43303</v>
+        <v>43981</v>
       </c>
       <c r="C4" s="7" t="b">
         <f ca="1">IF(AND($B$4&gt;=E4,$B$4&lt;=F4),TRUE,FALSE)</f>
@@ -1629,73 +1953,246 @@
       </c>
       <c r="D4" s="5" t="str">
         <f ca="1">CONCATENATE("1st Half of ",YEAR(B4))</f>
-        <v>1st Half of 2018</v>
+        <v>1st Half of 2020</v>
       </c>
       <c r="E4" s="6">
         <f ca="1">DATE((YEAR(B4)-1),4,1)</f>
-        <v>42826</v>
+        <v>43556</v>
       </c>
       <c r="F4" s="6">
         <f ca="1">DATE((YEAR(B4)-1),MONTH(E4)+6,0)</f>
-        <v>43008</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+        <v>43738</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B7" ca="1" si="0">TODAY()</f>
+        <v>43981</v>
+      </c>
       <c r="C5" s="7" t="b">
         <f ca="1">IF(AND($B$4&gt;=E5,$B$4&lt;=F5),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D5" s="5" t="str">
         <f ca="1">CONCATENATE("2nd Half of ",YEAR(B4))</f>
-        <v>2nd Half of 2018</v>
+        <v>2nd Half of 2020</v>
       </c>
       <c r="E5" s="6">
         <f ca="1">DATE((YEAR(B4)-1),10,1)</f>
-        <v>43009</v>
+        <v>43739</v>
       </c>
       <c r="F5" s="6">
         <f ca="1">DATE((YEAR(B4)-1),MONTH(E5)+6,0)</f>
-        <v>43190</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+        <v>43921</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5">
+        <v>-3</v>
+      </c>
+      <c r="J5" s="42">
+        <f ca="1">DATE(YEAR($B$4)+I5,$K$5,1)</f>
+        <v>42826</v>
+      </c>
+      <c r="K5" s="53">
+        <v>4</v>
+      </c>
+      <c r="L5" s="53">
+        <v>9</v>
+      </c>
+      <c r="M5" s="59">
+        <f ca="1">YEAR(J5)+1</f>
+        <v>2018</v>
+      </c>
+      <c r="N5" t="str">
+        <f ca="1">_xlfn.CONCAT("1st Half of ",M5)</f>
+        <v>1st Half of 2018</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43981</v>
+      </c>
       <c r="C6" s="7" t="b">
         <f ca="1">IF(AND($B$4&gt;=E6,$B$4&lt;=F6),TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D6" s="5" t="str">
         <f ca="1">CONCATENATE("1st Half of ",YEAR(B4)+1)</f>
-        <v>1st Half of 2019</v>
+        <v>1st Half of 2021</v>
       </c>
       <c r="E6" s="6">
         <f ca="1">DATE(YEAR(B4),4,1)</f>
+        <v>43922</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ref="F6:F7" ca="1" si="1">DATE(YEAR(E6),MONTH(E6)+6,0)</f>
+        <v>44104</v>
+      </c>
+      <c r="I6">
+        <v>-2</v>
+      </c>
+      <c r="J6" s="42">
+        <f ca="1">DATE(YEAR($B$4)+I6,$K$5,1)</f>
         <v>43191</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" ref="F6:F7" ca="1" si="0">DATE(YEAR(E6),MONTH(E6)+6,0)</f>
-        <v>43373</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="K6" s="53">
+        <v>10</v>
+      </c>
+      <c r="L6" s="53">
+        <v>3</v>
+      </c>
+      <c r="M6" s="59">
+        <f t="shared" ref="M6:M12" ca="1" si="2">YEAR(J6)+1</f>
+        <v>2019</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N8" ca="1" si="3">_xlfn.CONCAT("1st Half of ",M6)</f>
+        <v>1st Half of 2019</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43981</v>
+      </c>
       <c r="C7" s="4" t="b">
         <f ca="1">IF(AND($B$4&gt;=E7,$B$4&lt;=F7),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D7" s="5" t="str">
         <f ca="1">CONCATENATE("2nd Half of ",YEAR(B4)+1)</f>
-        <v>2nd Half of 2019</v>
+        <v>2nd Half of 2021</v>
       </c>
       <c r="E7" s="6">
         <f ca="1">DATE(YEAR(B4),10,1)</f>
+        <v>44105</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>44286</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="42">
+        <f ca="1">DATE(YEAR($B$4)+I7,$K$5,1)</f>
+        <v>43556</v>
+      </c>
+      <c r="M7" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1st Half of 2020</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
+        <f t="shared" ref="J8" ca="1" si="4">DATE(YEAR($B$4)+I8,$K$5,1)</f>
+        <v>43922</v>
+      </c>
+      <c r="M8" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1st Half of 2021</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <v>-3</v>
+      </c>
+      <c r="J9" s="42">
+        <f ca="1">DATE(YEAR($B$4)+I9,$K$6,1)</f>
+        <v>43009</v>
+      </c>
+      <c r="M9" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="N9" t="str">
+        <f ca="1">_xlfn.CONCAT("2nd Half of ",M9)</f>
+        <v>2nd Half of 2018</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <v>-2</v>
+      </c>
+      <c r="J10" s="42">
+        <f ca="1">DATE(YEAR($B$4)+I10,$K$6,1)</f>
         <v>43374</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>43555</v>
-      </c>
+      <c r="M10" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" ref="N10:N12" ca="1" si="5">_xlfn.CONCAT("2nd Half of ",M10)</f>
+        <v>2nd Half of 2019</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="42">
+        <f ca="1">DATE(YEAR($B$4)+I11,$K$6,1)</f>
+        <v>43739</v>
+      </c>
+      <c r="M11" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2nd Half of 2020</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42">
+        <f ca="1">DATE(YEAR($B$4)+I12,$K$6,1)</f>
+        <v>44105</v>
+      </c>
+      <c r="M12" s="59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2nd Half of 2021</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J14" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
